--- a/BIS232_EXCLUSION_RQST_SUBMIT/input_data/script/gui_map.xlsx
+++ b/BIS232_EXCLUSION_RQST_SUBMIT/input_data/script/gui_map.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07C7A1-0DA4-4592-9355-E640F217EDAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBE065-855B-41FE-AF35-26AA2C7DC64B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guiMap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
   <si>
     <t>locator_type</t>
   </si>
@@ -464,6 +469,24 @@
   </si>
   <si>
     <t>uploadSuccess</t>
+  </si>
+  <si>
+    <t>OrganizationSelect</t>
+  </si>
+  <si>
+    <t>Select Organization</t>
+  </si>
+  <si>
+    <t>//select[contains(@title, 'Product Standards')]</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>DesignationInput</t>
+  </si>
+  <si>
+    <t>//input[contains(@id, 'Designation')]</t>
   </si>
 </sst>
 </file>
@@ -557,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:E51" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E51" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:E53" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E53" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
@@ -833,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,6 +1723,40 @@
         <v>146</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
